--- a/attached_assets/audio-file-metadata-template.xlsx
+++ b/attached_assets/audio-file-metadata-template.xlsx
@@ -8,156 +8,133 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prith\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985F5CBA-FB63-4754-8C23-646AC08EF1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A760BA-78A8-4E2E-8F6F-6BA45663D469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Audio File Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
+    <sheet name="AudioFileMetadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>filename</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>language</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>call_date</t>
   </si>
   <si>
-    <t>call_type</t>
-  </si>
-  <si>
-    <t>agent_id</t>
-  </si>
-  <si>
-    <t>call_id</t>
-  </si>
-  <si>
-    <t>customer_satisfaction</t>
-  </si>
-  <si>
-    <t>handle_time</t>
+    <t>sample-call-1.wav</t>
   </si>
   <si>
     <t>english</t>
   </si>
   <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>sample-call-2.wav</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>Callid</t>
+  </si>
+  <si>
+    <t>Calltype</t>
   </si>
   <si>
     <t>inbound</t>
   </si>
   <si>
-    <t>AGT123</t>
-  </si>
-  <si>
-    <t>CALL-001-20250331</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Exact filename of the audio file including extension</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Language of the call</t>
-  </si>
-  <si>
-    <t>english, spanish, french, hindi, other</t>
-  </si>
-  <si>
-    <t>Version identifier for the call</t>
-  </si>
-  <si>
-    <t>Date when the call occurred</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>Type of call</t>
-  </si>
-  <si>
-    <t>inbound, outbound, transfer, etc.</t>
-  </si>
-  <si>
-    <t>Identifier for the agent who handled the call</t>
-  </si>
-  <si>
-    <t>Unique identifier for the call</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Customer satisfaction score</t>
-  </si>
-  <si>
-    <t>number (1-5)</t>
-  </si>
-  <si>
-    <t>Call duration in seconds</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>agent-261-17027502084-1546-SIL_Inbound-2023_12_15_10_35_33-919700514723.wav</t>
-  </si>
-  <si>
-    <t>agent-261-17027502083-4769-SIL_Inbound-2023_12_15_13_45_05-919880769769.wav</t>
-  </si>
-  <si>
-    <t>hindi</t>
-  </si>
-  <si>
-    <t>v2.0</t>
-  </si>
-  <si>
     <t>outbound</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>Symp_Inbound_D2C</t>
+  </si>
+  <si>
+    <t>NPR_Beetel_Outbound</t>
+  </si>
+  <si>
+    <t>Disposiotion</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Not Lead</t>
+  </si>
+  <si>
+    <t>Disposiotion1</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>not happy</t>
+  </si>
+  <si>
+    <t>Customer Mobile</t>
+  </si>
+  <si>
+    <t>Call Time</t>
+  </si>
+  <si>
+    <t>Sub Type</t>
+  </si>
+  <si>
+    <t>Sub Sub Type</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Advisor category</t>
+  </si>
+  <si>
+    <t>Query Type</t>
+  </si>
+  <si>
+    <t>Business Segment</t>
+  </si>
+  <si>
+    <t>Lob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,269 +504,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="1">
+        <v>180</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" s="1">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>249</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B3" s="1">
+        <v>240</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G3" s="1">
+        <v>204</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I1" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.796875" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A2:C3 D1 D2:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>